--- a/rhla_analysis/rhla1_3_exp_result/k9.xlsx
+++ b/rhla_analysis/rhla1_3_exp_result/k9.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0029643035707801</v>
+        <v>0.002964303570780105</v>
       </c>
       <c r="B2" t="n">
         <v>0.4066983076629403</v>
@@ -466,12 +466,12 @@
         <v>0.1909633418584825</v>
       </c>
       <c r="D2" t="n">
-        <v>137.19860262352</v>
+        <v>137.1986026235198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.005222754192447531</v>
+        <v>0.005222754192447574</v>
       </c>
       <c r="B3" t="n">
         <v>0.4188241794262915</v>
@@ -480,12 +480,12 @@
         <v>0.170076726342711</v>
       </c>
       <c r="D3" t="n">
-        <v>80.19220587328054</v>
+        <v>80.19220587327989</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01170547025439249</v>
+        <v>0.01170547025439247</v>
       </c>
       <c r="B4" t="n">
         <v>0.4370098037285975</v>
@@ -494,12 +494,12 @@
         <v>0.1811594202898551</v>
       </c>
       <c r="D4" t="n">
-        <v>37.33381011024391</v>
+        <v>37.33381011024394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.004568911519971276</v>
+        <v>0.004568911519971241</v>
       </c>
       <c r="B5" t="n">
         <v>0.3693177960190433</v>
@@ -508,40 +508,40 @@
         <v>0.1888320545609548</v>
       </c>
       <c r="D5" t="n">
-        <v>80.83277480964769</v>
+        <v>80.83277480964831</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.007731988552864497</v>
+        <v>0.00773198855286438</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4008362840756163</v>
+        <v>0.4008362840756162</v>
       </c>
       <c r="C6" t="n">
         <v>0.1764705882352941</v>
       </c>
       <c r="D6" t="n">
-        <v>51.84129300438722</v>
+        <v>51.84129300438799</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004430558392302228</v>
+        <v>0.004430558392302237</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3817782728441048</v>
+        <v>0.3817782728441049</v>
       </c>
       <c r="C7" t="n">
         <v>0.1807331628303495</v>
       </c>
       <c r="D7" t="n">
-        <v>86.16933556443284</v>
+        <v>86.16933556443269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.005757811627793054</v>
+        <v>0.005757811627793032</v>
       </c>
       <c r="B8" t="n">
         <v>0.3794258981844122</v>
@@ -550,12 +550,12 @@
         <v>0.1717817561807332</v>
       </c>
       <c r="D8" t="n">
-        <v>65.89758795736161</v>
+        <v>65.89758795736186</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.004649058538786358</v>
+        <v>0.004649058538786273</v>
       </c>
       <c r="B9" t="n">
         <v>0.4581639388076245</v>
@@ -564,12 +564,12 @@
         <v>0.1828644501278772</v>
       </c>
       <c r="D9" t="n">
-        <v>98.54983218327656</v>
+        <v>98.54983218327837</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.004641935405237333</v>
+        <v>0.00464193540523729</v>
       </c>
       <c r="B10" t="n">
         <v>0.4019440322377817</v>
@@ -578,12 +578,12 @@
         <v>0.1649616368286445</v>
       </c>
       <c r="D10" t="n">
-        <v>86.58975128871512</v>
+        <v>86.58975128871593</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.004770937699523793</v>
+        <v>0.004770937699523797</v>
       </c>
       <c r="B11" t="n">
         <v>0.4205784384382269</v>
@@ -592,7 +592,7 @@
         <v>0.1965046888320546</v>
       </c>
       <c r="D11" t="n">
-        <v>88.15425078390912</v>
+        <v>88.15425078390905</v>
       </c>
     </row>
   </sheetData>
